--- a/device.xlsx
+++ b/device.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EDUNET\alarm-console\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1CDE17-4996-4BB4-8F4A-3F85D88E6A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42300C26-33BD-4B51-BF22-F7B4DAE6A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D4945D27-BC50-4C2A-9FD3-9A74294EDF60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D4945D27-BC50-4C2A-9FD3-9A74294EDF60}"/>
   </bookViews>
   <sheets>
     <sheet name="CONVEYOR" sheetId="3" r:id="rId1"/>
@@ -2875,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF40218-998A-4EF5-8701-1E97D5B929DE}">
   <dimension ref="A1:G563"/>
   <sheetViews>
-    <sheetView topLeftCell="A337" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J349" sqref="J349"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15855,8 +15855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B2ADA1-70D1-45CF-9B8D-A125C8B89059}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
